--- a/biology/Botanique/Julius_von_Sachs/Julius_von_Sachs.xlsx
+++ b/biology/Botanique/Julius_von_Sachs/Julius_von_Sachs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius von Sachs est un botaniste allemand, né le 2 octobre 1832 à Breslau et mort le 29 mai 1897 à Wurtzbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il montre très jeune un intérêt pour l'histoire naturelle. Il quitte l'école en 1851 et devient l'assistant du physiologiste Jan Evangelista Purkinje (1787-1869) à Prague. En 1856, il obtient un doctorat puis s'oriente vers une carrière en botanique. Il s'établit comme Privatdozent en physiologie végétale à l'université de Prague.
 En 1859, il obtient un poste d'assistant à l'Académie agricole de Tharandt en Saxe ; en 1861, il obtient la direction de l'école polytechnique de Chemnitz, mais est presque immédiatement transféré à l'Académie agricole de Poppelsdorf, près de Bonn, poste qu'il occupe jusqu'en 1867. Il est nommé alors professeur de botanique à l'université de Fribourg-en-Brisgau. En 1868, il accepte la chaire de botanique de l’université de Wurtzbourg, qu'il occupera jusqu'à sa mort malgré les offres répétées des autres universités allemandes.
@@ -522,7 +536,7 @@
 Son Handbuch der Experimentalphysiologie des Pflanzen (1865 ; traduit en français dès 1868) fait le point sur les connaissances de l'époque et a une audience considérable. Il est suivi, en 1868, par la première édition de son fameux Lehrbuch der Botanik, l'un des meilleurs manuels de botanique du XIXe siècle. Il connaît de nombreuses rééditions, tant en Allemagne que dans d'autres pays européens.
 Son ouvrage, Vorlesungen uber Pflanzenphysiologie (1882, réédité en 1887) est plus spécialisé. Il est aussi l'auteur d'une histoire de la botanique, Geschichte der Botanik qui paraît en 1875 et qui sera également traduit dans les principales langues européennes. Julius von Sachs est devenu membre étranger de la Royal Society le 31 mai 1888.
 Son enseignement a une grande influence sur ses étudiants. Parmi ceux-ci, il faut citer : Julius Oscar Brefeld (1839-1925), Wilhelm Friedrich Philipp Pfeffer (1845-1920), Francis Darwin (1848-1925), Christian Ernest Stahl (1848-1919), Hugo de Vries (1848-1935), Karl Anton Eugen Prantl (1849-1893), Karl Ritter von Goebel (1855-1932), Georg Albrecht Klebs (1857-1913), Herman Müller Thurgau (1850-1927) et Fritz Noll (de) (1858-1908).
-Il a par contre manqué de clairvoyance en ne reconnaissant pas la portée des travaux de Charles Darwin et de son fils concernant la physiologie des racines, exposées dans l'ouvrage The Power of Movement in Plants que Sachs a vivement critiqué, mais qui s'est révélé confirmé par Wilhelm Pfeffer, un de ses anciens élèves[1].
+Il a par contre manqué de clairvoyance en ne reconnaissant pas la portée des travaux de Charles Darwin et de son fils concernant la physiologie des racines, exposées dans l'ouvrage The Power of Movement in Plants que Sachs a vivement critiqué, mais qui s'est révélé confirmé par Wilhelm Pfeffer, un de ses anciens élèves.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1859 : Physiologische Untersuchungen über die Keimung der Schmikbohne (Phaseolus multiflorus)
 1859 : Ueber das abwechselnde Erbleichen und Dunkelwerden der Blätter bei wechselnder Beleuchtung
